--- a/bid_requests_calendar.xlsx
+++ b/bid_requests_calendar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Requests" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bid Requests" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,351 +449,561 @@
           <t>Contractor</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Job Walk</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1100 Dexter 1st Floor TI &amp; Lobby Refresh</t>
+          <t>012.CUS - B of A University Way</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/19/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HST Construction</t>
+          <t>Omega Services and Supply</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Invitation to bid on the B of A University Way project, which includes bid packages for LGFS, Paint, and Drywall. The project utilizes Procore Construction Project Management Software to streamline the bidding process. There is no mention of union or prevailing wage in the email.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barnes &amp; Noble</t>
+          <t>013.CUS - B of A Parkland</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>02/21/25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Englewood Construction, Inc., Hardesty + Associates</t>
+          <t>Omega Services and Supply</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Invitation to bid on the Bank of America - Parkland project, which includes work on LGFS, Paint, and Drywall. The project involves using Procore Construction Project Management Software to streamline the bidding process. There is no mention of union or prevailing wage in the email.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barnes &amp; Noble #3524, Lakewood, WA</t>
+          <t>2448 Talking Rain TI #2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/04/24</t>
+          <t>02/05/25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not specified in the email, UHC Construction Services, UHC Construction Services, Inc.</t>
+          <t>Merit Construction</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A site visit is scheduled for Wednesday, January 29th at 1:30 pm. It is highly suggested to attend to view the existing space and conditions. Thomas Evans will be the on-site representative.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The project involves flooring and steel stub/GWB work, including new resilient/rubber base flooring, suspended GWB ceiling framing at new restrooms, and allowances for floor prep and miscellaneous wall patching. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barnes &amp; Noble - WA</t>
+          <t>4th &amp; Madison on L25: Paint and wall covering</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Englewood Construction, Inc</t>
+          <t>Sellen Construction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>January 30, 2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TI remodeling including demising the space between two tenants on L25. They also would like to modify a portion of the space, mostly by building out more private offices. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barnes and Noble Lakewood, WA</t>
+          <t>AC Hotel Detroit, RH Gallery, Mixed-Use Development in Downtown Birmingham</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dugan Building, Dugan Building Company</t>
+          <t>Sachse Construction</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The email highlights three major developments in Metro Detroit, including the AC Hotel Detroit in Midtown Detroit and two projects in downtown Birmingham—a brand-new RH Gallery and a mixed-use development. There is no mention of union or prevailing wage in the email.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bellevue Big Picture School Modernization</t>
+          <t>Alliance Bernstein Seattle - Office Fitout: Painting &amp; Wallcovering</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/11/24</t>
+          <t>02/10/25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FORMA Construction Company</t>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The project involves painting and wallcovering for the Alliance Bernstein office fitout located at 601 Union Street, Seattle, WA. The email does not specify if the project is union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bellevue College W Building</t>
+          <t>Bank of America - South Hill</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/11/25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Swinerton Builders</t>
+          <t>DBSI, Inc.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Interior demolition and build out, including Demolition, Final Cleaning, Millwork, Drywall, Painting, Plumbing &amp; Bath Accessories, HVAC, and Electrical. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bellevue Pacific Market Ready Suites</t>
+          <t>Bellevue College West Building</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/22/24</t>
+          <t>02/12/25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HITT Contracting Inc.</t>
+          <t>Marpac Construction LLC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The project involves the addition and renovation of an existing classroom building, approximately 62,700 square feet, including site improvements and outdoor yard work. The wage scale for this project is WA State Commercial Prevailing Wages.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BoA Bethany Village OR Reno</t>
+          <t>Bon Appetit Bakery - Bellevue</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>02/11/25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Westmark Construction, Inc.</t>
+          <t>Wilcox Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The email does not provide a detailed project description, and there is no mention of union or prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BoA West Linn OR Reno</t>
+          <t>Bridge Tacoma 210 Spec TI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/26/24</t>
+          <t>01/31/25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Westmark Construction, Inc.</t>
+          <t>Sierra Construction</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,315-SF office buildout within existing warehouse shell. The project is in for permitting now with Pierce County. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carillon</t>
+          <t>Bridge Tacoma 210 Spec TI: Acoustical Ceilings</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/07/25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Deacon Construction, LLC</t>
+          <t>Sierra Construction</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3,315-SF office buildout within existing warehouse shell. The project is in for permitting now with Pierce County. The MEP will be designed. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Carillon: Metal Framing &amp; GWB</t>
+          <t>Bridge Tacoma 210 Spec TI: Metal Framing &amp; Drywall</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>02/13/24</t>
+          <t>02/07/25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Deacon Construction, LLC</t>
+          <t>Sierra Construction</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,315-SF office buildout within existing warehouse shell. The project is currently in for permitting with Pierce County. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carters / Oshkosh Southcenter Mall Tukwila</t>
+          <t>Bridge Tacoma 210 Spec TI: Painting</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>02/07/25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Loberg Construction, Loberg Construction Co.</t>
+          <t>Sierra Construction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3,315-SF office buildout within existing warehouse shell. The project is in for permitting now with Pierce County. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Comfort Suites - Tukwila - Guest Room Refresh</t>
+          <t>Burlington - Kent, WA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/27/24</t>
+          <t>01/29/25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Donovan Brothers Inc.</t>
+          <t>Atlas Building Group</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>The Burlington project in Kent, WA is being managed by Atlas Building Group, a national general contractor with a long history of completing similar projects coast to coast. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Early Childhood Center at Two Rivers School</t>
+          <t>CMMC Preparedness Program</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/02/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mehrer Drywall Inc.</t>
+          <t>Doyon Government Group</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>The project involves the implementation of the Cybersecurity Maturity Model Certification (CMMC) program as mandated by the Department of Defense. This program aims to protect sensitive data from public release, requiring compliance from all prime contractors and subcontractors involved in Department of Defense contracts. There is no mention of union or prevailing wage in the description.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Early Childhood Center at Two Rivers School: Acoustical Ceilings</t>
+          <t>Cam Clark Evergreen Ford</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/29/24</t>
+          <t>01/17/25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pivotal Construction</t>
+          <t>Foushee</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Construction of a new multistory Ford Dealership with showroom, service, and 3 floors of parking/display. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FWCC Locker Room Renovation</t>
+          <t>Cam Clark Evergreen Ford (24.12.23 Resubmittal)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/06/24</t>
+          <t>01/17/25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Westmark Construction, Inc.</t>
+          <t>Foushee</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Construction of a new multistory Ford Dealership with showroom, service, and 3 floors of parking/display. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gene Juarez - West Seattle</t>
+          <t>Carter's 626 Centralia WA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/05/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wilcox Construction, Inc.</t>
+          <t>GRB Service Systems, Inc. DBA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>The project involves a Carter’s store in Centralia, WA. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gong Cha Bubble Tea - Capitol Hill</t>
+          <t>Carters 626 (Centralia, WA)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/03/24</t>
+          <t>02/10/25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wilcox Construction, Inc.</t>
+          <t>Southwestern Services, Southwestern Services - Dana Robinson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No specific mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Interior Tenant Fit Out of a Barnes and Noble in Lakewood, WA</t>
+          <t>Cascade High School</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/04/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Menemsha Development Group, Inc.</t>
+          <t>Pivotal Construction</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Interior construction in an occupied building is required to convert a former restroom to a clinic, as the bid documents describe. Minor exterior work will also be required. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Island Health 22nd Street Clinic</t>
+          <t>Chick-Fil-A - Olympia, WA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -803,235 +1013,375 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TRICO Companies, LLC</t>
+          <t>ESI Construction</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>This is a new building for Chick-fil-A located at 2932 Capital Mall Drive Southwest, Olympia, WA 98502. The scope consists of earthwork, utilities, asphalt, site concrete, landscaping, building concrete, masonry, structural steel, finish carpentry, and roofing. The project is to be bid as Traditional/Stick Built and is not panelized. There is no mention of union or prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jackson Elementary School</t>
+          <t>Chick-fil-A - Olympia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/05/25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mehrer</t>
+          <t>Wilcox Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The project involves an updated site and utility plan for a Chick-fil-A location in Olympia, WA. It includes bidding for project asphalt per the Geotech specifications (4" AC over 8" AB) and is confirmed to be a Traditional/Stick Built project. There is no mention of union or prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jackson Elementary School Replacement: Framing &amp; GWB</t>
+          <t>Chick-fil-A - Olympia WA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11/26/24</t>
+          <t>02/03/25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cornerstone General Contractors, Inc</t>
+          <t>Corstone LLC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>The project involves updating ADA stalls to concrete and bidding the project asphalt per the Geotech specifications (4" AC over 8" AB). The project is confirmed to be Traditional/Stick Built and is not panelized. There is no mention of union or prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lower Columbia College Batting and Storage Facility</t>
+          <t>Crash Champions (Arlington, WA)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/16/24</t>
+          <t>02/10/25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pivotal Construction</t>
+          <t>KPS Commercial Construction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The project involves renovation work. There is no mention of union or prevailing wage in the provided email.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lower Columbia College Batting and Storage Facility: Drywall &amp; Framing</t>
+          <t>Crash Champions - Arlington, WA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/16/24</t>
+          <t>01/27/25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pivotal Construction</t>
+          <t>R2 Construction &amp; Facilities</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Renovation to pre-existing auto body shop. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Margaret Estates Apartments</t>
+          <t>Daves Hot Chicken Redmond</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/06/24</t>
+          <t>02/03/25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kirtley-Cole</t>
+          <t>CPM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>January 31st at 10 AM (Tentative)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>New 2,289 square foot tenant improvement for the Dave’s Hot Chicken Franchise located in Redmond. The project includes final cleaning, scanning of PT deck, core-drilling, concrete topping slab over structural foam, polished concrete, CMU, cold form metal framing, finish carpentry, waterproofing, insulation, firestopping, hollow metal doors, wood doors, Eliason doors, storefronts, steel stud framing, GWB, ACT, floor prep, epoxy flooring &amp; base, wall coverings, FRP, painting, restroom accessories, window film, plumbing, walk-in cooler &amp; freezer install, HVAC, TAB, electrical &amp; low voltage. The email does not mention union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mercer Middle School Replacement</t>
+          <t>El Pollo Loco: Painting - Existing Siding</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11/25/24</t>
+          <t>01/24/25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cornerstone General Contractors, Insulpro Projects, Inc.</t>
+          <t>Colvos Construction</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Interior/Exterior tenant improvement to take an existing retail store and build out a fast casual restaurant. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Escape Game - Seattle, WA : Drywall &amp; Framing</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>01/27/25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Anish, Icon Insulation</t>
+          <t>GRAVES CONSTRUCTION GROUP SERVICES INC.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>The project involves drywall and framing work for the Escape Game located at 2101 Westlake Avenue, Suite B, Seattle, WA 98109. It is a private project with no prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Park Ave Commons Apartments</t>
+          <t>Everett High School</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/13/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jody Miller Construction</t>
+          <t>Pivotal Construction</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Interior construction in an occupied building is required to convert a former computer lab to a clinic, as the bid documents describe. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PenMet Parks Admin HQ Construction Corrections Project</t>
+          <t>Evergreen Health MRI Replacement</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/16/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pivotal Construction</t>
+          <t>Not specified, TRICO Companies, LLC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PenMet Parks Admin HQ Construction Corrections Project: Drywall &amp; Framing</t>
+          <t>EvergreenHealth MRI Replacement</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/16/24</t>
+          <t>02/12/25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pivotal Construction</t>
+          <t>GLY Construction, Mehrer Drywall, Inc</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>The project involves the replacement of the MRI at EvergreenHealth in Kirkland, WA. The scope of work includes Gypsum Board Assemblies, Thermal Insulation, Acoustic Insulation, and Joint Sealant. There is no mention of union or prevailing wage in the provided information.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Providence St. Peter Sunshine House: Paint &amp; Wall Coverings</t>
+          <t>EvergreenHealth MRI Replacement Project</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/04/24</t>
+          <t>02/12/25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aldrich + Associates Inc</t>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>January 23, 2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Project includes removal of existing MRI machine, installation of new MRI machine, and minor finish updates. Mechanical and electrical work limited to reconfiguration to support new equipment. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QFC Commercial Building Refresh</t>
+          <t>EvergreenHealth MRI Replacement: Drywall &amp; Framing</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11/27/24</t>
+          <t>02/12/25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pennon Construction</t>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>January 23, 2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Project includes removal of existing MRI machine, installation of new MRI machine, and minor finish updates. Mechanical and electrical work limited to reconfiguration to support new equipment. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rad Onc Vault C Equipment Replacement</t>
+          <t>EvergreenHealth MRI Replacement: Painting</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/09/24</t>
+          <t>02/12/25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GLY Construction</t>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>January 23, 2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Project includes removal of existing MRI machine, installation of new MRI machine, and minor finish updates. Mechanical and electrical work limited to reconfiguration to support new equipment. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ripple Office Building</t>
+          <t>Financial Center Lobby Remodel</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1041,116 +1391,186 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Colvos Construction</t>
+          <t>HST Construction</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Not specified in the email</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The project involves remodeling the lobby of a financial center. There is no mention of union or prevailing wage in the email.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SWSD Facilities Modifications and Upgrades</t>
+          <t>Frye Art Museum Restroom Remodel</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>01/30/25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Absher Construction Company</t>
+          <t>Skyline Construction</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Demolish existing men's and women's restrooms for new all-gender restroom remodel. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SWSD Facilities Modifications and Upgrades: Acoustical Ceilings</t>
+          <t>Frye Museum - Restroom Remodel</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/12/24</t>
+          <t>01/30/25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Absher Construction Company</t>
+          <t>Mehrer Drywall, Inc.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No walk through scheduled; pictures and initial drawing set attached for reference.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The project involves remodeling restrooms at the Frye Museum. It is for a non-profit client, and they are gathering pricing information before setting a construction start date. There is no mention of union or prevailing wage in the email.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SWSD Facilities Modifications and Upgrades: Drywall and Metal Stud Framing</t>
+          <t>Gene Juarez - Southcenter</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/12/24</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Absher Construction Company</t>
+          <t>Wilcox Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>January 27, 2025, 9:00 AM</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tenant Improvement for a new Gene Juarez Location in Tukwila at Southcenter. The space is 9,600 Sqft. The scope of work includes demolition, concrete cutting, FRP, membrane roofing, metal fabrication, insulation, HM/doors/hardware, entrances/storefront, drywall, tile, ACT, carpet/resilient, concrete floors, painting, mirrors, toilet accessories, casework, countertops, fire protection, plumbing, HVAC, electrical, and fire alarm. (No mention of union or prevailing wage.)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SWSD Facilities Modifications and Upgrades: Painting</t>
+          <t>Google KU South TI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/12/24</t>
+          <t>01/29/25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Absher Construction Company</t>
+          <t>Turner Construction Company</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Interior architecture and design for the Google Studio and Café space within a new seven-story high-rise building. The scope for Google Studio and Café space affects levels 1.5 through... (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sandberg Building Conversion</t>
+          <t>Google KU South TI - 100% CD Rebid</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/10/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Colvos Construction</t>
+          <t>BNBuilders, Inc.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The project involves the rebidding of the Google KU South TI, previously handled by BNBuilders. There is no mention of union or prevailing wage in the provided information.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sandberg Building Conversion: Drywall &amp; Framing</t>
+          <t>Google KU South TI - 100% CD Rebid!</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/10/24</t>
+          <t>01/22/25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Colvos Construction</t>
+          <t>BNBuilders, Inc.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The project involves pricing for Google KU South TI, previously handled by BNBuilders. The email does not specify if the project is union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SeaTac 3rd Floor GT Booth Enhancements</t>
+          <t>Green River College - Radio Station Remodel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1160,211 +1580,1961 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JTM Construction, Inc.</t>
+          <t>Saybr Contractors, Inc.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Not specified in the email</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The project involves remodeling work at Green River College's radio station. The email does not mention union or prevailing wage requirements.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SeaTac 3rd Floor GT Booth Enhancements Project</t>
+          <t>Grocery Outlet - Mountlake Terrace, WA: Drywall &amp; Framing</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11/25/24</t>
+          <t>02/05/25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JTM Construction, Inc.</t>
+          <t>GLR, Inc.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>The project involves work consisting of demolition. There is no mention of union or prevailing wage in the provided details.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SeaTac 3rd Floor GT Booth Enhancements: Acoustical Ceilings</t>
+          <t>Grocery Outlet TI- Mountlake Terrace, WA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11/25/24</t>
+          <t>02/04/25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JTM Construction, Inc.</t>
+          <t>Tilton Pacific Construction</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Scheduled for Tuesday, January 28, at 11:30 AM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tenant improvement of an existing retail space for a Grocery Outlet. The scope of work includes demolition, concrete, CMU, structural steel, metal fabrications, rough carpentry, insulation, finish carpentry (casework), sheet metal, roofing, FRP, doors/frames/hardware, overhead doors, storefront, auto doors, metal studs &amp; drywall, epoxy flooring, resilient flooring, painting, toilet accessories, fire sprinklers, plumbing, HVAC, and electrical. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SeaTac 3rd Floor GT Booth Enhancements: Drywall &amp; Framing</t>
+          <t>HC-Bldg 2 All Gender Restroom Remodel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11/21/24</t>
+          <t>01/01/11**</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Swinerton Builders</t>
+          <t>Takisaki</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>The project involves remodeling the All Gender Restroom at Highline College. No mention of union or prevailing wage.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SeaTac 3rd Floor GT Booth Enhancments</t>
+          <t>HealthierHere</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11/25/24</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JTM Construction, Inc.</t>
+          <t>TCL Partners</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>To Be Determined</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The project is located at West 8th, 2001 8th Ave, Floor 14, Seattle, WA. 98121. There is no specific mention of union or prevailing wage in the provided email.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Skagit County Prosecutor Office Tenant Improvement</t>
+          <t>HealthierHere: Drywall &amp; Framing</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/14/25</t>
+          <t>02/04/25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FORMA Construction Company</t>
+          <t>Venture General Contracting, LLC</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TI renovation that includes demo, new walls, server room, catering room, and other finish elements. Breakout pricing needed for TI scope and Land Lord Scope as shown in the plan set. (Union or prevailing wage not mentioned)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sound Transit BRT BP #2 - All Other Work</t>
+          <t>Kirkland Urban South TI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/04/24</t>
+          <t>01/29/25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mehrer Drywall - Seattle</t>
+          <t>GLY Construction</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>High Tech Tenant Improvement in Kirkland Urban South (entire building 7 floors). Includes high-end finishes in casework, flooring, ceilings, and conferencing rooms with acoustical features. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>St. Stephen's - Child Care Center</t>
+          <t>Kuna Rural Fire Station #2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Deacon Construction, LLC</t>
+          <t>ESI Construction</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>New building ground up construction of the Kuna Rural Fire District Fire Station #2. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>St. Stephens Childcare Center - GWB</t>
+          <t>Lake Wilderness Community Clubhouse</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Deacon Construction, LLC</t>
+          <t>GenCap Construction Corp</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>The project involves FRP/Wall Paneling and includes the demolition of the existing structure. It is a prevailing wage project.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Two Rivers Early Childhood Learning Center</t>
+          <t>Lake Wilderness Community Clubhouse - Rebid</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/01/11**</t>
+          <t>02/06/25</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bayley Construction</t>
+          <t>Schuchart</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The project involves the rebid of the Lake Wilderness Community Clubhouse in the City of Maple Valley. No specific mention of union or prevailing wage is included in the email.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UWMC Rad-Onc Vault C Equipment Replacement</t>
+          <t>Lake Wilderness Community Clubhouse Re-Bid</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12/06/24</t>
+          <t>02/05/25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BNBuilders, Inc.</t>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The project involves the demolition and removal of an existing 2-story building and the construction of a new 2-story building, including all new foundations, structure, M/E/P/FP systems, and site work to include erosion control. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UWMC Rad-Onc Vault C Equipment Replacement: Paint &amp; Wall Coverings</t>
+          <t>Lake Wilderness Community Clubhouse Re-Bid: Wall Panels</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12/06/24</t>
+          <t>02/05/25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aldrich + Associates Inc</t>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Demolition &amp; removal of existing 2-story building. Construction of a new 2-story building, including all new foundations, structure, M/E/P/FP systems. Site work to include erosion control and other related tasks. (No mention of union or prevailing wage)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Website Audit and Improvement</t>
+          <t>Latitude 47 Building E Suite E</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>01/24/25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Foushee</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Buildout of spec bathrooms and office. The project requires only labor costs as all materials have been previously purchased. No mention of union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Madison Centre - Level 27 : Drywall &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01/31/25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sellen Construction</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5,117 sf tenant improvement project on the 27th floor of the Madison Centre building. Work includes non-structural demolition, new partitions, doors, sidelites, casework, and finishes. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Madison Centre - Level 27 Project</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01/31/25</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sellen Construction</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5,117 sf tenant improvement project on the 27th floor of the Madison Centre building. Work includes non-structural demolition, new partitions, doors, sidelites, casework, and finishes. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Operation Facility Improvements Phase 1 - Auburn: Ceilings</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>02/05/25</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>January 27, 2025</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>The project involves improvements to the Maintenance &amp; Operation Facility, specifically focusing on ceilings. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Operation Facility Improvements Phase 1 - Auburn: GWB &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>02/05/25</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>January 27, 2025</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>The project involves improvements to the Maintenance &amp; Operation Facility, specifically focusing on GWB (Gypsum Wall Board) &amp; Framing. The email does not mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Operation Facility Improvements Phase 1 - Auburn: Paints and Coatings</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>02/05/25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>January 27, 2025</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>The project involves improvements to a maintenance and operation facility, specifically focusing on paints and coatings. The email does not mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Maintenance &amp; Operation Facility Improvements Phase 1 - Auburn: Rough Carpentry</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>02/05/25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>January 27, 2025</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>The project involves improvements to the Maintenance &amp; Operation Facility, specifically focusing on rough carpentry. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Maple Valley Lake Wilderness Clubhouse - REBID</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>02/06/25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Schuchart</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>The project involves the demolition of the existing golf clubhouse and the construction of a new 20,166 SF 2-story clubhouse at the same location. The scope of work includes sitework, erosion control, soil cut and fill, revisions and expansion of the existing parking lot and driveway, new utility connections, new landscaping and grading, demolition and removal of the existing 2-story structure, and construction of a new 2-story building with all new foundations, structure, mechanical/electrical/plumbing, and fire protection systems. The contractor is required to pay Washington State Department of Labor and Industries Prevailing Wages, Rates for King County, effective February 7, 2025, and there is a 15% minimum Apprentice Utilization Requirement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mary's Place Burien: Ceilings</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>02/07/25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GLY Construction</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>The project involves an existing Mary’s Place building located at 12845 Ambaum Boulevard Southwest, Burien, WA 98146. The site is being subdivided into three sub-plats with a new Mary’s Place project being built. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Mason Health Campus Master Plan – Phase 1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01/29/25</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>January 16, 2025</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Master plan work consists of phased occupied interior renovation projects on two floors of the hospital, totaling about 19,000 SF. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mason Health Campus Master Plan – Phase 1 - Public Bid</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>01/01/11**</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Nirman Dev</t>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Not mentioned in the email</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Master plan work consists of phased occupied interior renovation projects on two floors of the hospital; totaling about 19,000 SF. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Medical Examiners Office</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01/31/25</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Neeley Construction Company</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>The email does not provide a detailed project description, and there is no mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Negotiated Walmart #1999-276 Remodel - Andover, MN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ESI Construction</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>This is a negotiated job directly with ESI and Walmart, involving night work. The project includes a 1,896 square foot expansion for grocery pick-up, remodeling of various areas including the back room, break room, pharmacy, and vision center, revisions to the check-out area, refurbishment of the customer service area, replacement of doors, cleaning, prepping, and painting of entry vestibule, exterior surfaces, and interior walls, removal and repair of flooring, replacement or refurbishment of refrigerated cases in the grocery area, installation of a mother's room, relocation of the photo lab, installation of new equipment on the roof, replacement of exterior signage, and white boxing of vacant tenant space. Union or prevailing wage is not mentioned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Newport High School Stadium Concession Replacement</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GenCap Construction Corp</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>January 22, 2025</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>The Newport High School Concessions replacement project will include demolition of the existing facilities. (No mention of union or prevailing wage in the provided text.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Newport High School Stadium Concession Replacement: Drywall</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>GenCap Construction Corp</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>January 22, 2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The Newport High School Concessions replacement project will include demolition of the existing structure. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Newport High School Stadium Concessions Replacement</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bayley Construction, Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Not specified in the email</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The project involves the replacement of stadium concessions at Newport High School. There is no mention of union or prevailing wage in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Newport High School Stadium Concessions Replacement: GWB &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>January 22, 2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>The project involves the replacement of stadium concessions at Newport High School. No specific mention of union or prevailing wage is included in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>O'Reilly Auto Parts - Tacoma</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The Hatch Group, Inc.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>The project involves a Tenant Improvement for O'Reilly Auto Parts in Tacoma, WA. Trades include demolition, doors, concrete, metal stud/drywall, painting, storefront/glazing, insulation, restroom accessories, polish concrete, mechanical, electrical, plumbing, and fire protection. No mention of union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oscar SEA81.02 AWS Skills Center (25-3784)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Corti Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>The email does not provide a detailed project description, and there is no mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PQ502 SOF Cold Water Training Austere Environment Facility - Early Release Package: Drywall, Framing, &amp; Ceilings</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>02/07/25</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The Haskell Company</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>The project involves constructing a single-story training and equipment maintenance facility for Naval Special Warfare Group EIGHT (NSWG8), including the demolition of Building 8. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Pierce County Medical Examiner Facility Renovation</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01/30/25</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>January 7, 2025</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>The project consists of an interior renovation to the Medical Examiner (ME) facility in Pierce County, Washington. This is a prevailing wage project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Pierce County Medical Examiner Office Equipment &amp; Reconfiguration</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01/01/25</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The project consists of an interior renovation to the Medical Examiner (ME) facility in Pierce County, Washington. It is a prevailing wage project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Pierce County Medical Examiner Office Equipment &amp; Reconfiguration: Painting &amp; Coatings</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01/30/25</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>January 7, 2025</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The project consists of an interior renovation to the Medical Examiner (ME) facility in Pierce County, Washington. It is a prevailing wage project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Pierce County Medical Examiner renovation project</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01/31/25</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Marpac Construction LLC</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>The project involves renovation work at the Pierce County Medical Examiner's office. The work must be done in phases and includes lead-lined GWB work in the CT room. The wage rate is specified as WA State (Pierce County) Commercial Prevailing Wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pierce County Medical Examiner's Office</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mehrer</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>The project involves a temporary corridor scope (A3.04) that will last for a significant portion of the project duration. The scope includes pricing for GWB, vapor barrier, framing, and insulation. Engineering costs are also requested. There is no mention of union or prevailing wage in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Primrose School of Redmond</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01/28/25</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Deacon Construction, LLC</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Tenant improvement for a daycare facility in a new construction shell. Concrete decks above and below are CIP PT slabs. Interior wall framing is wood studs. No mention of union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Quinault Wellness Center Phase 2 : DRYWALL PARTITIONS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01/31/25</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Clark Construction Inc</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>January 23, 2025</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tenant improvements to the existing wellness center, including demolition, salvage and relocation of various existing improvements, and the relocation and expansion of the current dental clinic. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>REUBEN'S BREWS AT HARBOR STEPS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>02/03/25</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Northway Inc. (Contact: Douglas Frederick, Sr Project Manager)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Wednesday, January 22nd at 10:00 AM</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>The project involves converting existing retail spaces into a new restaurant and tap house, combining two spaces into one, and changing the use/occupancy from "M - Retail" to "A2 - Restaurant". The scope includes interior and exterior modifications, such as new seating platforms, mechanical, electrical, plumbing, low-voltage, and fire sprinkler systems, and various construction tasks like painting, lighting, and signage installation. The project does not explicitly mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Redmond City Hall- Offices: Acoustical Ceilings</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>02/05/25</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Venture General Contracting, LLC</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>The project involves acoustical ceilings at Redmond City Hall offices. No mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Removery - Lynnwood, WA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>01/21/25</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Horizon Retail Construction Inc.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>The project involves bidding for all trades with a start date scheduled for Monday, March 31st. The email emphasizes the importance of reviewing the Design Spec-Book before finalizing proposals. There is no mention of union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Renovate Women's Head Rm124, B2737, NASWI</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01/27/25</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Washington Patriot Construction LLC</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Site visit scheduled for Wednesday January 8th at 1pm. Participants will meet at the NAVFAC bldg 103. Please let Aileen know if you intend to participate by Friday January 3rd as we have to submit an attendee list.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>This is a Design-Build project located at Naval Air Station Whidbey Island (NASWI). It involves the reconfiguration and renovation of the women's head (restroom) Room 124 and the renovation of unisex head (room 122) within Hangar 12, Building 2737, including providing and maintaining a temporary restroom facility. The scope includes demolition of existing fixtures, finishes, and equipment, installation of new gypsum, tile, solid surface countertops, paint, bathroom partitions, accessories, wall-mounted toilets, light fixtures, and wiring. The project is being solicited by Ayko Group WA Patriot Joint Venture, and if awarded, contracts will be issued from the JV to subcontractors/suppliers. The project is located on a secure military installation, requiring costs for badging, vehicle inspections, and working in high-security areas to be included in subcontractor pricing. Wage requirements and obligations to meet state and federal laws apply, highlighting the importance of union or prevailing wage considerations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Replace Existing Ladders, Roof Hatches and Vents, and Renew Interior Finishes, B7000 TRF Bangor</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01/30/25</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Doyon Management Services, LLC</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The project involves replacing existing ladders, roof hatches, and vents, as well as renewing interior finishes at TRF-NBK-Bangor in Silverdale, WA. There is no mention of union or prevailing wage in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Restaurant at Vancouver - Mill Plain</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>02/12/25</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ESI Construction</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>The project involves site development, building demolition, site concrete, utilities, masonry, stone work, miscellaneous steel, wood framing, wood trusses, finish carpentry, waterproofing, insulation, EIFS, PVC roofing, sheet metal flashing, joint sealants, doors, aluminum windows, glazing, stucco, gypsum, steel stud framing, tile, ACT, paint, Division 10 accessories, fire suppression, cooler box supply and install plumbing, HVAC, and electrical. No substitutions are allowed unless noted otherwise. The project does not mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rivian - Seattle Pop-Up</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>The project involves the tenant improvement (TI) of an existing retail space, including a sales area and back of house employee areas. The scope of work includes interior non-bearing walls, doors and lighting, finishes, and new electrical. Union or prevailing wage is not mentioned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Rivian Spaces - University Village - (Seattle, WA)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sachse Construction - Estimating Department</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>No specific details provided about union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Roosevelt Manor - IFC Bid</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01/28/25</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sierra Construction</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Construction of a new 8-story multi-family building with 137 Residential Apartment Units and parking for 39 vehicles. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Rose Villa Harvest Grill: Drywall &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>R&amp;H Construction</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>January 29, 2025</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>TI buildout of new dining space. All MEPFS systems are design build. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SBJc // Mill Creek, WA: Acoustical Ceilings</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Censor Commercial Construction</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>The project involves acoustical ceilings. The email does not specifically mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SBJc // Mill Creek, WA: Drywall &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Censor Commercial Construction</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>The project involves drywall and framing work. The email does not explicitly mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SBJc // Mill Creek, WA: Painting</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Censor Commercial Construction</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>The project involves painting work at the location specified. The email does not explicitly mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SCH Bellevue ORs: Paint &amp; Wall Coverings</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01/27/25</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Aldrich + Associates Inc</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>January 16, 2025</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Aldrich has teamed with Seattle Children's Hospital and ZGF to construct the SCH Bellevue ORs. The project involves painting and wall coverings. The email does not mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Safelite (Puyallup, WA)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cahill Construction</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The project involves work for Wall Coverings &amp; Wallpapers, Framing Systems--Light Gauge, Acoustical Contractors, Painting Contractors, and Drywall Contractors. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Safelite - Puyallup, WA</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cahill Construction Inc.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The project involves developing pricing for the Safelite location in Puyallup, WA. The labor is open, indicating no specific mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Seattle Children’s Bellevue ORs</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01/27/25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Soundview Playfield Renovation</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ohno Construction Co. | Ohno-Touchdown JV</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>There will be two site visits at 1590 NW 90th Street, Seattle, WA 98117; 1st: Thursday, January 16th, 2025 @ 10am, 2nd: Friday, January 17th, 2025 @ 10am</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>This project includes the installation of a new synthetic turf multi-purpose field with lights, new site infrastructure, accessible routes, park amenities, and playfield support facilities. It also involves the construction of a new storage shed and improvements to existing restrooms. The project is a Covered Project subject to the City of Seattle’s Community Workforce Agreement (CWA) and Priority Hire SMC 20.37, indicating union or prevailing wage requirements. Subcontractors who are WMBE are encouraged to submit a bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TBD Ice Cream- Queen Anne, WA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>02/12/25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CM Corp</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Thursday, January 30, 2025 @9AM</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>This project involves converting an existing 1,230 square foot retail space into a new ice cream shop in a freestanding building. There is no mention of union or prevailing wage in the provided details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TBD Ice Cream- Redmond, WA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>02/13/25</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CM Corp</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>This project involves converting an existing 1,263 square foot retail space into a new ice cream shop within a multi-use, multi-story building that has residential units above. The email does not specify if the project is union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TJ Maxx - Kent, WA</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01/29/25</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Atlas Building Group</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>The project involves bidding for the TJ Maxx location in Kent, WA. Atlas Building Group is a national general contractor with extensive experience in completing similar projects across the country. There is no mention of union or prevailing wage requirements in the provided email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TUS 40 - Williams Kastner: Painting &amp; Wallcovering</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>02/03/25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>January 24, 2025</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Full floor TI and stair infill. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>The Vitamin Shoppe @ Fred Meyer's</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01/30/25</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Elite Retail Services, Not specified</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>The email does not provide a detailed project description, and there is no mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Vitamin Shoppe @ Fred Meyer's Ballard, Washington</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01/30/25</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Elite Retail Services</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>This project calls for the New Construction with Site Work of a Retail Store. No mention of union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tiny Treasures - Child Care Center</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Colvos Construction</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>New construction on a vacant site of a 5,070SF early learning center in Mountlake Terrace. Single-story to support 70 children and 13 FTE employees. (No mention of union or prevailing wage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>UW NanoES Quantum Lab Modifications</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>GLY Construction</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>The project involves modifications to the UW NanoES Quantum Lab, specifically related to gypsum board. There is no mention of union or prevailing wage in the provided email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>UW NanoES Quantum Lab Modifications: Gypsum Board</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>GLY Construction</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>The project involves modifications to the UW NanoES Quantum Lab, specifically focusing on gypsum board work. There is no mention of union or prevailing wage in the provided email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>UW Raitt Hall Elevator Modernization</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Site walk occurred on 01/22/2025</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>The project involves the full modernization of one existing borehole (in-ground) hydraulic passenger elevator at Raitt Hall. No mention of union or prevailing wage in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>UW Temporary Childcare Center</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>02/04/25</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Centennial Contractors Enterprises, Inc., GLY Construction</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>The project involves the construction of a temporary childcare center for the University of Washington. The email does not specify if the project is union or prevailing wage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Walmart #1843</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>02/12/25</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ESI Construction</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Not mentioned</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>The project involves various updates and installations at Walmart #1843, including cleaning, prepping, and painting exterior and interior surfaces, installing and replacing signage, adding bollards and doors, relocating and adding digital displays, remodeling the breakroom, and refurbishing restrooms. The project also includes updates to the pharmacy, garden center, rear offices, mother's room, online pickup area, and vision center. There is no mention of union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wells Fargo Bellevue City Center</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>January 22, 2025</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>The project involves drywall and framing work at the Wells Fargo Bellevue City Center. The email does not explicitly mention union or prevailing wage requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Wells Fargo Bellevue City Center Lvl 10 Office TI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01/01/11**</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Not specified in the email</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>The project involves tenant improvements (TI) for an office space located at Level 10, 555 110th Ave NE, Bellevue, WA 98004. There is no mention of union or prevailing wage in the email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Wells Fargo Bellevue City Center Lvl 10 Office TI: Acoustical Ceilings</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>02/10/25</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Abbott Construction</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>January 22, 2025</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>The project involves acoustical ceilings at the Wells Fargo Bellevue City Center, located on Level 10. The email does not specify if the project is union or prevailing wage.</t>
         </is>
       </c>
     </row>
